--- a/xlsx/玻利維亞_intext.xlsx
+++ b/xlsx/玻利維亞_intext.xlsx
@@ -29,7 +29,7 @@
     <t>玻利维亚国旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_玻利維亞</t>
+    <t>体育运动_体育运动_伊朗_玻利維亞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E%E5%9C%8B%E5%BE%BD</t>
